--- a/soccer/soccer_data.xlsx
+++ b/soccer/soccer_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mepst\Downloads\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aee6651d2a907b95/Documents/Education/Clarkson/Classes/Fall 2024/MA-DS 241/Portfolio_Data_Analytics/soccer/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{4ADC2845-DF67-484A-9664-1CB38F492AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6AA26F3-4A7B-4800-9370-F3849DA55EED}"/>
+    <workbookView xWindow="12067" yWindow="0" windowWidth="12315" windowHeight="15563" xr2:uid="{D6AA26F3-4A7B-4800-9370-F3849DA55EED}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset - 2020-09-24" sheetId="1" r:id="rId1"/>
@@ -3016,20 +3016,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A83A92-D4ED-4ADE-B734-6B44085A5102}">
   <dimension ref="A1:BG572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AX8" sqref="AX8"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="24.44140625" customWidth="1"/>
-    <col min="12" max="12" width="25.77734375" customWidth="1"/>
-    <col min="13" max="13" width="29.109375" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" customWidth="1"/>
-    <col min="16" max="16" width="27.44140625" customWidth="1"/>
+    <col min="11" max="11" width="24.46484375" customWidth="1"/>
+    <col min="12" max="12" width="25.796875" customWidth="1"/>
+    <col min="13" max="13" width="29.1328125" customWidth="1"/>
+    <col min="15" max="15" width="24.1328125" customWidth="1"/>
+    <col min="16" max="16" width="27.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>134</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>137</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>144</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>154</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>156</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>159</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>168</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>174</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>181</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>183</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>185</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>196</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>197</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>198</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>201</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>202</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>203</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>204</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>205</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>206</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>207</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -17199,7 +17199,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>210</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>211</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>212</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>214</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>216</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>217</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>219</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>221</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>225</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>227</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>228</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>229</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>230</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>232</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>233</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>235</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>236</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>238</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>240</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>241</v>
       </c>
@@ -20569,7 +20569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>242</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>243</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>244</v>
       </c>
@@ -20890,7 +20890,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>245</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>246</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>248</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>249</v>
       </c>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>250</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>251</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>253</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>254</v>
       </c>
@@ -21931,7 +21931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>255</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>256</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>257</v>
       </c>
@@ -22333,7 +22333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>258</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>259</v>
       </c>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>261</v>
       </c>
@@ -22735,7 +22735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>262</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>263</v>
       </c>
@@ -23009,7 +23009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>265</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>266</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>269</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>271</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>272</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>273</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>274</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>275</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>276</v>
       </c>
@@ -24370,7 +24370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>277</v>
       </c>
@@ -24477,7 +24477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>278</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="172" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>279</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>280</v>
       </c>
@@ -24798,7 +24798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>281</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>284</v>
       </c>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>286</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>287</v>
       </c>
@@ -25306,7 +25306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>288</v>
       </c>
@@ -25440,7 +25440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>289</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>290</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>291</v>
       </c>
@@ -25842,7 +25842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>292</v>
       </c>
@@ -25976,7 +25976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>293</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>294</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>295</v>
       </c>
@@ -26384,7 +26384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>296</v>
       </c>
@@ -26524,7 +26524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>297</v>
       </c>
@@ -26664,7 +26664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>298</v>
       </c>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>299</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>300</v>
       </c>
@@ -27084,7 +27084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>302</v>
       </c>
@@ -27224,7 +27224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>303</v>
       </c>
@@ -27364,7 +27364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>304</v>
       </c>
@@ -27504,7 +27504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>305</v>
       </c>
@@ -27644,7 +27644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>306</v>
       </c>
@@ -27751,7 +27751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>307</v>
       </c>
@@ -27858,7 +27858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>308</v>
       </c>
@@ -27965,7 +27965,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="199" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>309</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>310</v>
       </c>
@@ -28179,7 +28179,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="201" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>311</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>313</v>
       </c>
@@ -28393,7 +28393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>315</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>316</v>
       </c>
@@ -28607,7 +28607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>317</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>318</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>321</v>
       </c>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>322</v>
       </c>
@@ -28981,7 +28981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>323</v>
       </c>
@@ -29115,7 +29115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>325</v>
       </c>
@@ -29249,7 +29249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>326</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>327</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>328</v>
       </c>
@@ -29651,7 +29651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>329</v>
       </c>
@@ -29785,7 +29785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>330</v>
       </c>
@@ -29919,7 +29919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>331</v>
       </c>
@@ -30053,7 +30053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>332</v>
       </c>
@@ -30193,7 +30193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>333</v>
       </c>
@@ -30333,7 +30333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>334</v>
       </c>
@@ -30467,7 +30467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>335</v>
       </c>
@@ -30607,7 +30607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>336</v>
       </c>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>337</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>338</v>
       </c>
@@ -31027,7 +31027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>340</v>
       </c>
@@ -31167,7 +31167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>341</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>342</v>
       </c>
@@ -31447,7 +31447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>343</v>
       </c>
@@ -31554,7 +31554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="228" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>344</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>345</v>
       </c>
@@ -31768,7 +31768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>346</v>
       </c>
@@ -31875,7 +31875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>347</v>
       </c>
@@ -31964,7 +31964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>349</v>
       </c>
@@ -32053,7 +32053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>350</v>
       </c>
@@ -32187,7 +32187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>351</v>
       </c>
@@ -32321,7 +32321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>352</v>
       </c>
@@ -32455,7 +32455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>353</v>
       </c>
@@ -32589,7 +32589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>354</v>
       </c>
@@ -32723,7 +32723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>355</v>
       </c>
@@ -32857,7 +32857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>356</v>
       </c>
@@ -32991,7 +32991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>357</v>
       </c>
@@ -33125,7 +33125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>358</v>
       </c>
@@ -33259,7 +33259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>359</v>
       </c>
@@ -33399,7 +33399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>360</v>
       </c>
@@ -33533,7 +33533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>361</v>
       </c>
@@ -33673,7 +33673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>362</v>
       </c>
@@ -33813,7 +33813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>363</v>
       </c>
@@ -33953,7 +33953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>364</v>
       </c>
@@ -34093,7 +34093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>365</v>
       </c>
@@ -34233,7 +34233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>366</v>
       </c>
@@ -34373,7 +34373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>367</v>
       </c>
@@ -34513,7 +34513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>368</v>
       </c>
@@ -34653,7 +34653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>369</v>
       </c>
@@ -34760,7 +34760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>370</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>371</v>
       </c>
@@ -34974,7 +34974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>372</v>
       </c>
@@ -35081,7 +35081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>373</v>
       </c>
@@ -35188,7 +35188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>374</v>
       </c>
@@ -35277,7 +35277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>376</v>
       </c>
@@ -35366,7 +35366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>377</v>
       </c>
@@ -35455,7 +35455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>378</v>
       </c>
@@ -35589,7 +35589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>379</v>
       </c>
@@ -35723,7 +35723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>380</v>
       </c>
@@ -35857,7 +35857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>381</v>
       </c>
@@ -35991,7 +35991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>382</v>
       </c>
@@ -36125,7 +36125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>383</v>
       </c>
@@ -36259,7 +36259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>384</v>
       </c>
@@ -36393,7 +36393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>385</v>
       </c>
@@ -36527,7 +36527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>387</v>
       </c>
@@ -36661,7 +36661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>388</v>
       </c>
@@ -36795,7 +36795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>389</v>
       </c>
@@ -36935,7 +36935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>390</v>
       </c>
@@ -37075,7 +37075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>391</v>
       </c>
@@ -37215,7 +37215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>392</v>
       </c>
@@ -37355,7 +37355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>393</v>
       </c>
@@ -37495,7 +37495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>394</v>
       </c>
@@ -37635,7 +37635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>395</v>
       </c>
@@ -37775,7 +37775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>396</v>
       </c>
@@ -37915,7 +37915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>397</v>
       </c>
@@ -38055,7 +38055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>398</v>
       </c>
@@ -38195,7 +38195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>399</v>
       </c>
@@ -38302,7 +38302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>401</v>
       </c>
@@ -38442,7 +38442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>402</v>
       </c>
@@ -38579,7 +38579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>403</v>
       </c>
@@ -38686,7 +38686,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="284" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>404</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>405</v>
       </c>
@@ -38900,7 +38900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>406</v>
       </c>
@@ -39007,7 +39007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>407</v>
       </c>
@@ -39147,7 +39147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>408</v>
       </c>
@@ -39236,7 +39236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>410</v>
       </c>
@@ -39325,7 +39325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>411</v>
       </c>
@@ -39414,7 +39414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>412</v>
       </c>
@@ -39503,7 +39503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>413</v>
       </c>
@@ -39592,7 +39592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>414</v>
       </c>
@@ -39726,7 +39726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>415</v>
       </c>
@@ -39860,7 +39860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>416</v>
       </c>
@@ -39994,7 +39994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>417</v>
       </c>
@@ -40128,7 +40128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>418</v>
       </c>
@@ -40262,7 +40262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>419</v>
       </c>
@@ -40396,7 +40396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>420</v>
       </c>
@@ -40530,7 +40530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>421</v>
       </c>
@@ -40664,7 +40664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>422</v>
       </c>
@@ -40798,7 +40798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>423</v>
       </c>
@@ -40938,7 +40938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>424</v>
       </c>
@@ -41078,7 +41078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>425</v>
       </c>
@@ -41218,7 +41218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="305" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>426</v>
       </c>
@@ -41358,7 +41358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>428</v>
       </c>
@@ -41498,7 +41498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>429</v>
       </c>
@@ -41638,7 +41638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>430</v>
       </c>
@@ -41778,7 +41778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>431</v>
       </c>
@@ -41918,7 +41918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>432</v>
       </c>
@@ -42058,7 +42058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>433</v>
       </c>
@@ -42198,7 +42198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>434</v>
       </c>
@@ -42338,7 +42338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>435</v>
       </c>
@@ -42478,7 +42478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>436</v>
       </c>
@@ -42585,7 +42585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>437</v>
       </c>
@@ -42692,7 +42692,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="316" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>438</v>
       </c>
@@ -42799,7 +42799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="317" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>439</v>
       </c>
@@ -42906,7 +42906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>441</v>
       </c>
@@ -43013,7 +43013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>442</v>
       </c>
@@ -43120,7 +43120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>443</v>
       </c>
@@ -43260,7 +43260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>444</v>
       </c>
@@ -43367,7 +43367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>445</v>
       </c>
@@ -43456,7 +43456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>447</v>
       </c>
@@ -43545,7 +43545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>448</v>
       </c>
@@ -43631,7 +43631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>449</v>
       </c>
@@ -43765,7 +43765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>450</v>
       </c>
@@ -43899,7 +43899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>451</v>
       </c>
@@ -44033,7 +44033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>452</v>
       </c>
@@ -44173,7 +44173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>454</v>
       </c>
@@ -44307,7 +44307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>455</v>
       </c>
@@ -44441,7 +44441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>456</v>
       </c>
@@ -44575,7 +44575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>457</v>
       </c>
@@ -44709,7 +44709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>458</v>
       </c>
@@ -44843,7 +44843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>459</v>
       </c>
@@ -44980,7 +44980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>460</v>
       </c>
@@ -45120,7 +45120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>461</v>
       </c>
@@ -45260,7 +45260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>462</v>
       </c>
@@ -45400,7 +45400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>463</v>
       </c>
@@ -45540,7 +45540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>464</v>
       </c>
@@ -45680,7 +45680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>465</v>
       </c>
@@ -45820,7 +45820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>466</v>
       </c>
@@ -45960,7 +45960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>467</v>
       </c>
@@ -46100,7 +46100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>468</v>
       </c>
@@ -46207,7 +46207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>469</v>
       </c>
@@ -46314,7 +46314,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="345" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>470</v>
       </c>
@@ -46421,7 +46421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="346" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>471</v>
       </c>
@@ -46528,7 +46528,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="347" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>472</v>
       </c>
@@ -46635,7 +46635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="348" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>473</v>
       </c>
@@ -46742,7 +46742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>474</v>
       </c>
@@ -46831,7 +46831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>476</v>
       </c>
@@ -46917,7 +46917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>477</v>
       </c>
@@ -47006,7 +47006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>478</v>
       </c>
@@ -47095,7 +47095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>479</v>
       </c>
@@ -47229,7 +47229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>480</v>
       </c>
@@ -47363,7 +47363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>481</v>
       </c>
@@ -47497,7 +47497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>482</v>
       </c>
@@ -47631,7 +47631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>483</v>
       </c>
@@ -47765,7 +47765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>484</v>
       </c>
@@ -47899,7 +47899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>485</v>
       </c>
@@ -48033,7 +48033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>486</v>
       </c>
@@ -48167,7 +48167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>487</v>
       </c>
@@ -48301,7 +48301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>488</v>
       </c>
@@ -48435,7 +48435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>489</v>
       </c>
@@ -48569,7 +48569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>490</v>
       </c>
@@ -48703,7 +48703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>491</v>
       </c>
@@ -48837,7 +48837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>492</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>493</v>
       </c>
@@ -49117,7 +49117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="368" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>494</v>
       </c>
@@ -49257,7 +49257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>495</v>
       </c>
@@ -49397,7 +49397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>496</v>
       </c>
@@ -49537,7 +49537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>497</v>
       </c>
@@ -49677,7 +49677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>498</v>
       </c>
@@ -49817,7 +49817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>499</v>
       </c>
@@ -49957,7 +49957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>500</v>
       </c>
@@ -50097,7 +50097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>501</v>
       </c>
@@ -50237,7 +50237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>502</v>
       </c>
@@ -50344,7 +50344,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="377" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>503</v>
       </c>
@@ -50451,7 +50451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="378" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>504</v>
       </c>
@@ -50558,7 +50558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="379" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>505</v>
       </c>
@@ -50665,7 +50665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>506</v>
       </c>
@@ -50754,7 +50754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>508</v>
       </c>
@@ -50843,7 +50843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>509</v>
       </c>
@@ -50932,7 +50932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>510</v>
       </c>
@@ -51021,7 +51021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>511</v>
       </c>
@@ -51155,7 +51155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>512</v>
       </c>
@@ -51289,7 +51289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>513</v>
       </c>
@@ -51423,7 +51423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>514</v>
       </c>
@@ -51557,7 +51557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>515</v>
       </c>
@@ -51691,7 +51691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>516</v>
       </c>
@@ -51825,7 +51825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>517</v>
       </c>
@@ -51959,7 +51959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>518</v>
       </c>
@@ -52093,7 +52093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>519</v>
       </c>
@@ -52227,7 +52227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>520</v>
       </c>
@@ -52367,7 +52367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>521</v>
       </c>
@@ -52507,7 +52507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>522</v>
       </c>
@@ -52647,7 +52647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>523</v>
       </c>
@@ -52787,7 +52787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>524</v>
       </c>
@@ -52927,7 +52927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>526</v>
       </c>
@@ -53067,7 +53067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>527</v>
       </c>
@@ -53207,7 +53207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>528</v>
       </c>
@@ -53347,7 +53347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>529</v>
       </c>
@@ -53487,7 +53487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="402" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>530</v>
       </c>
@@ -53627,7 +53627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>531</v>
       </c>
@@ -53767,7 +53767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>532</v>
       </c>
@@ -53907,7 +53907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>533</v>
       </c>
@@ -54014,7 +54014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="406" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>534</v>
       </c>
@@ -54121,7 +54121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>535</v>
       </c>
@@ -54228,7 +54228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>536</v>
       </c>
@@ -54335,7 +54335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>537</v>
       </c>
@@ -54442,7 +54442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="410" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>538</v>
       </c>
@@ -54531,7 +54531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>540</v>
       </c>
@@ -54620,7 +54620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>541</v>
       </c>
@@ -54709,7 +54709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>542</v>
       </c>
@@ -54798,7 +54798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>543</v>
       </c>
@@ -54932,7 +54932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>544</v>
       </c>
@@ -55066,7 +55066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>545</v>
       </c>
@@ -55200,7 +55200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>546</v>
       </c>
@@ -55334,7 +55334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>547</v>
       </c>
@@ -55468,7 +55468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>548</v>
       </c>
@@ -55602,7 +55602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>549</v>
       </c>
@@ -55736,7 +55736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>550</v>
       </c>
@@ -55870,7 +55870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>551</v>
       </c>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>552</v>
       </c>
@@ -56138,7 +56138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>553</v>
       </c>
@@ -56272,7 +56272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>554</v>
       </c>
@@ -56412,7 +56412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>555</v>
       </c>
@@ -56552,7 +56552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>556</v>
       </c>
@@ -56692,7 +56692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>557</v>
       </c>
@@ -56832,7 +56832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>558</v>
       </c>
@@ -56972,7 +56972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>559</v>
       </c>
@@ -57112,7 +57112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>560</v>
       </c>
@@ -57252,7 +57252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>561</v>
       </c>
@@ -57392,7 +57392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>562</v>
       </c>
@@ -57532,7 +57532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>563</v>
       </c>
@@ -57639,7 +57639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>564</v>
       </c>
@@ -57746,7 +57746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>565</v>
       </c>
@@ -57853,7 +57853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>566</v>
       </c>
@@ -57960,7 +57960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>567</v>
       </c>
@@ -58049,7 +58049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>569</v>
       </c>
@@ -58138,7 +58138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>570</v>
       </c>
@@ -58227,7 +58227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>571</v>
       </c>
@@ -58316,7 +58316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>572</v>
       </c>
@@ -58450,7 +58450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>573</v>
       </c>
@@ -58584,7 +58584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>574</v>
       </c>
@@ -58718,7 +58718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>575</v>
       </c>
@@ -58852,7 +58852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>576</v>
       </c>
@@ -58986,7 +58986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>577</v>
       </c>
@@ -59120,7 +59120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>578</v>
       </c>
@@ -59254,7 +59254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>579</v>
       </c>
@@ -59388,7 +59388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>580</v>
       </c>
@@ -59528,7 +59528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>581</v>
       </c>
@@ -59668,7 +59668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>582</v>
       </c>
@@ -59808,7 +59808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>583</v>
       </c>
@@ -59948,7 +59948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>584</v>
       </c>
@@ -60088,7 +60088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>585</v>
       </c>
@@ -60228,7 +60228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="456" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>586</v>
       </c>
@@ -60335,7 +60335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>587</v>
       </c>
@@ -60475,7 +60475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>588</v>
       </c>
@@ -60582,7 +60582,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="459" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>589</v>
       </c>
@@ -60689,7 +60689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="460" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>590</v>
       </c>
@@ -60796,7 +60796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>591</v>
       </c>
@@ -60903,7 +60903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>592</v>
       </c>
@@ -60992,7 +60992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>594</v>
       </c>
@@ -61081,7 +61081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>595</v>
       </c>
@@ -61170,7 +61170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>596</v>
       </c>
@@ -61259,7 +61259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>597</v>
       </c>
@@ -61348,7 +61348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>598</v>
       </c>
@@ -61482,7 +61482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>599</v>
       </c>
@@ -61616,7 +61616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>600</v>
       </c>
@@ -61750,7 +61750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>601</v>
       </c>
@@ -61884,7 +61884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>602</v>
       </c>
@@ -62018,7 +62018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>603</v>
       </c>
@@ -62152,7 +62152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>604</v>
       </c>
@@ -62286,7 +62286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>605</v>
       </c>
@@ -62420,7 +62420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>606</v>
       </c>
@@ -62551,7 +62551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>607</v>
       </c>
@@ -62685,7 +62685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>608</v>
       </c>
@@ -62825,7 +62825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>609</v>
       </c>
@@ -62965,7 +62965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>610</v>
       </c>
@@ -63105,7 +63105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>611</v>
       </c>
@@ -63245,7 +63245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="481" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>612</v>
       </c>
@@ -63385,7 +63385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="482" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>613</v>
       </c>
@@ -63525,7 +63525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="483" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>614</v>
       </c>
@@ -63665,7 +63665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>615</v>
       </c>
@@ -63805,7 +63805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>616</v>
       </c>
@@ -63945,7 +63945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>617</v>
       </c>
@@ -64085,7 +64085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>618</v>
       </c>
@@ -64225,7 +64225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>619</v>
       </c>
@@ -64332,7 +64332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>620</v>
       </c>
@@ -64439,7 +64439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>621</v>
       </c>
@@ -64546,7 +64546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="491" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>623</v>
       </c>
@@ -64653,7 +64653,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="492" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>624</v>
       </c>
@@ -64760,7 +64760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>625</v>
       </c>
@@ -64867,7 +64867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>626</v>
       </c>
@@ -64956,7 +64956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>628</v>
       </c>
@@ -65045,7 +65045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>629</v>
       </c>
@@ -65134,7 +65134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>630</v>
       </c>
@@ -65268,7 +65268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>631</v>
       </c>
@@ -65402,7 +65402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>632</v>
       </c>
@@ -65536,7 +65536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>633</v>
       </c>
@@ -65670,7 +65670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>634</v>
       </c>
@@ -65804,7 +65804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>635</v>
       </c>
@@ -65938,7 +65938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>636</v>
       </c>
@@ -66072,7 +66072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>637</v>
       </c>
@@ -66206,7 +66206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>638</v>
       </c>
@@ -66340,7 +66340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>639</v>
       </c>
@@ -66474,7 +66474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>640</v>
       </c>
@@ -66614,7 +66614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>641</v>
       </c>
@@ -66754,7 +66754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>642</v>
       </c>
@@ -66894,7 +66894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>643</v>
       </c>
@@ -67034,7 +67034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>644</v>
       </c>
@@ -67174,7 +67174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>646</v>
       </c>
@@ -67314,7 +67314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>647</v>
       </c>
@@ -67421,7 +67421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>648</v>
       </c>
@@ -67561,7 +67561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>649</v>
       </c>
@@ -67701,7 +67701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>650</v>
       </c>
@@ -67808,7 +67808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>651</v>
       </c>
@@ -67915,7 +67915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="518" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>652</v>
       </c>
@@ -68022,7 +68022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>653</v>
       </c>
@@ -68129,7 +68129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="520" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>654</v>
       </c>
@@ -68236,7 +68236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>655</v>
       </c>
@@ -68343,7 +68343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>656</v>
       </c>
@@ -68432,7 +68432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>658</v>
       </c>
@@ -68521,7 +68521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>659</v>
       </c>
@@ -68610,7 +68610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>660</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>661</v>
       </c>
@@ -68833,7 +68833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="527" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>662</v>
       </c>
@@ -68967,7 +68967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>663</v>
       </c>
@@ -69101,7 +69101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>664</v>
       </c>
@@ -69235,7 +69235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>665</v>
       </c>
@@ -69369,7 +69369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>666</v>
       </c>
@@ -69503,7 +69503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>667</v>
       </c>
@@ -69637,7 +69637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>668</v>
       </c>
@@ -69777,7 +69777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>669</v>
       </c>
@@ -69911,7 +69911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>670</v>
       </c>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>671</v>
       </c>
@@ -70185,7 +70185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>672</v>
       </c>
@@ -70325,7 +70325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>673</v>
       </c>
@@ -70465,7 +70465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="539" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>674</v>
       </c>
@@ -70605,7 +70605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="540" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>675</v>
       </c>
@@ -70745,7 +70745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>676</v>
       </c>
@@ -70885,7 +70885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>677</v>
       </c>
@@ -71025,7 +71025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>678</v>
       </c>
@@ -71165,7 +71165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>679</v>
       </c>
@@ -71305,7 +71305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>680</v>
       </c>
@@ -71445,7 +71445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="546" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>681</v>
       </c>
@@ -71552,7 +71552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="547" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>682</v>
       </c>
@@ -71659,7 +71659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>683</v>
       </c>
@@ -71766,7 +71766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="549" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>684</v>
       </c>
@@ -71873,7 +71873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>685</v>
       </c>
@@ -71980,7 +71980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>686</v>
       </c>
@@ -72069,7 +72069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>688</v>
       </c>
@@ -72158,7 +72158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>689</v>
       </c>
@@ -72292,7 +72292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>690</v>
       </c>
@@ -72426,7 +72426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>691</v>
       </c>
@@ -72560,7 +72560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="556" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>692</v>
       </c>
@@ -72694,7 +72694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>693</v>
       </c>
@@ -72828,7 +72828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>694</v>
       </c>
@@ -72962,7 +72962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>695</v>
       </c>
@@ -73096,7 +73096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>696</v>
       </c>
@@ -73230,7 +73230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>697</v>
       </c>
@@ -73370,7 +73370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>698</v>
       </c>
@@ -73510,7 +73510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>699</v>
       </c>
@@ -73650,7 +73650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>700</v>
       </c>
@@ -73790,7 +73790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>701</v>
       </c>
@@ -73930,7 +73930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>702</v>
       </c>
@@ -74070,7 +74070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>703</v>
       </c>
@@ -74210,7 +74210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>704</v>
       </c>
@@ -74317,7 +74317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="569" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>705</v>
       </c>
@@ -74424,7 +74424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="570" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>707</v>
       </c>
@@ -74531,7 +74531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>708</v>
       </c>
@@ -74638,7 +74638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>709</v>
       </c>
